--- a/nr-add-numero-am/ig/ValueSet-fr-core-vs-spo2-body-location.xlsx
+++ b/nr-add-numero-am/ig/ValueSet-fr-core-vs-spo2-body-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:29:04+00:00</t>
+    <t>2026-01-12T10:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
